--- a/5LastProblems.xlsx
+++ b/5LastProblems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="520" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>The video is disconnected, but the event is necessary for the data collection</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>Test with another sender PlayReady App</t>
   </si>
   <si>
-    <t>I don’t know yet.</t>
-  </si>
-  <si>
-    <t>For example, sometimes it doesn't show the video and then unload, which I believe it's correct. However, some other times it plays the first 9 seconds of the video and then gets in a eternal buffering state. It seems that it "forgets" about the license and recalls it after 9 seconds.</t>
-  </si>
-  <si>
     <t>PlayReady: it is always played, regardless of the license.</t>
   </si>
   <si>
@@ -73,13 +64,25 @@
   </si>
   <si>
     <t>Some HLS videos simply don't work</t>
+  </si>
+  <si>
+    <t>Problem - APP</t>
+  </si>
+  <si>
+    <t>Problem - API/Google Sample</t>
+  </si>
+  <si>
+    <t>Chromecast is not supporting it. It will have to be changed in the sender app. Problem will be reported to the googlecast developers.</t>
+  </si>
+  <si>
+    <t>Solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,8 +96,31 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,15 +179,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -178,8 +214,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -520,115 +570,124 @@
     <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="72">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
       <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="13"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="67" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="67" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="B13" s="7"/>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="54">
+      <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="108">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/5LastProblems.xlsx
+++ b/5LastProblems.xlsx
@@ -179,8 +179,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,11 +233,19 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,7 +578,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
